--- a/data/trans_orig/P19C10_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C10_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD3A6526-B301-494A-8625-E55AB11D8ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7937DEFF-15DE-4F1E-98A1-A046C1344AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F4AB260A-1164-407F-ADD2-6D0AB7B21263}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C5252A2D-8249-477E-AF9D-9D797E47FB17}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="95">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por dolor de mandíbula / solo 2023 en 2023 (Tasa respuesta: 96,88%)</t>
   </si>
@@ -77,19 +77,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,86%</t>
+    <t>6,39%</t>
   </si>
   <si>
     <t>0,29%</t>
   </si>
   <si>
-    <t>1,5%</t>
+    <t>1,71%</t>
   </si>
   <si>
     <t>0,74%</t>
   </si>
   <si>
-    <t>3,12%</t>
+    <t>3,44%</t>
   </si>
   <si>
     <t>No</t>
@@ -98,7 +98,7 @@
     <t>98,68%</t>
   </si>
   <si>
-    <t>93,14%</t>
+    <t>93,61%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -107,13 +107,13 @@
     <t>99,71%</t>
   </si>
   <si>
-    <t>98,5%</t>
+    <t>98,29%</t>
   </si>
   <si>
     <t>99,26%</t>
   </si>
   <si>
-    <t>96,88%</t>
+    <t>96,56%</t>
   </si>
   <si>
     <t>100%</t>
@@ -131,199 +131,193 @@
     <t>0,06%</t>
   </si>
   <si>
-    <t>0,28%</t>
+    <t>0,31%</t>
   </si>
   <si>
     <t>0,03%</t>
   </si>
   <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
   </si>
   <si>
     <t>99,82%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
     <t>99,42%</t>
   </si>
   <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
   </si>
   <si>
     <t>99,36%</t>
   </si>
   <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
+    <t>98,79%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
   </si>
   <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
   </si>
   <si>
     <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -738,7 +732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC93ACFA-F0F3-463F-B5D3-94939FF4E392}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51C1F8C-3586-4AC7-80D5-306D21E9DCAF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1330,10 +1324,10 @@
         <v>57</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -1342,13 +1336,13 @@
         <v>5037</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -1357,10 +1351,10 @@
         <v>10091</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>64</v>
@@ -1384,7 +1378,7 @@
         <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="H14" s="7">
         <v>1016</v>
@@ -1393,13 +1387,13 @@
         <v>857151</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M14" s="7">
         <v>1667</v>
@@ -1408,13 +1402,13 @@
         <v>1560639</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1482,7 +1476,7 @@
         <v>1651</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
@@ -1497,13 +1491,13 @@
         <v>9601</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -1512,13 +1506,13 @@
         <v>11252</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1533,10 +1527,10 @@
         <v>924727</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>21</v>
@@ -1548,13 +1542,13 @@
         <v>1105175</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M17" s="7">
         <v>2462</v>
@@ -1563,13 +1557,13 @@
         <v>2029902</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1640,10 +1634,10 @@
         <v>29</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="H19" s="7">
         <v>32</v>
@@ -1652,13 +1646,13 @@
         <v>22122</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="M19" s="7">
         <v>41</v>
@@ -1667,13 +1661,13 @@
         <v>32856</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>29</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1691,10 +1685,10 @@
         <v>34</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H20" s="7">
         <v>5185</v>
@@ -1703,13 +1697,13 @@
         <v>3694726</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M20" s="7">
         <v>8429</v>
@@ -1718,10 +1712,10 @@
         <v>6961130</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>34</v>
@@ -1780,7 +1774,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C10_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C10_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7937DEFF-15DE-4F1E-98A1-A046C1344AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5318BA4B-DD16-4173-830F-7FC94194EC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C5252A2D-8249-477E-AF9D-9D797E47FB17}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7C662D21-5F42-4336-8900-D0404859CB93}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -119,7 +119,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0%</t>
@@ -155,7 +155,7 @@
     <t>99,8%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,27%</t>
@@ -206,7 +206,7 @@
     <t>99,77%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,71%</t>
@@ -732,7 +732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51C1F8C-3586-4AC7-80D5-306D21E9DCAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A5CD4E-6443-4C84-AA3F-E9EBBDAF0452}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P19C10_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C10_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5318BA4B-DD16-4173-830F-7FC94194EC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F3086D0-DBC3-4E64-98B5-2C1DE57F1A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7C662D21-5F42-4336-8900-D0404859CB93}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F7B34931-DC38-48C1-9477-A959C1A7FA13}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="97">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por dolor de mandíbula / solo 2023 en 2023 (Tasa respuesta: 96,88%)</t>
   </si>
@@ -77,19 +77,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,39%</t>
+    <t>6,86%</t>
   </si>
   <si>
     <t>0,29%</t>
   </si>
   <si>
-    <t>1,71%</t>
+    <t>1,5%</t>
   </si>
   <si>
     <t>0,74%</t>
   </si>
   <si>
-    <t>3,44%</t>
+    <t>3,12%</t>
   </si>
   <si>
     <t>No</t>
@@ -98,7 +98,7 @@
     <t>98,68%</t>
   </si>
   <si>
-    <t>93,61%</t>
+    <t>93,14%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -107,13 +107,13 @@
     <t>99,71%</t>
   </si>
   <si>
-    <t>98,29%</t>
+    <t>98,5%</t>
   </si>
   <si>
     <t>99,26%</t>
   </si>
   <si>
-    <t>96,56%</t>
+    <t>96,88%</t>
   </si>
   <si>
     <t>100%</t>
@@ -131,13 +131,13 @@
     <t>0,06%</t>
   </si>
   <si>
-    <t>0,31%</t>
+    <t>0,28%</t>
   </si>
   <si>
     <t>0,03%</t>
   </si>
   <si>
-    <t>0,2%</t>
+    <t>0,18%</t>
   </si>
   <si>
     <t>99,67%</t>
@@ -146,13 +146,13 @@
     <t>99,94%</t>
   </si>
   <si>
-    <t>99,69%</t>
+    <t>99,72%</t>
   </si>
   <si>
     <t>99,97%</t>
   </si>
   <si>
-    <t>99,8%</t>
+    <t>99,82%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -167,157 +167,163 @@
     <t>0,65%</t>
   </si>
   <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
   </si>
   <si>
     <t>99,7%</t>
   </si>
   <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
+    <t>0,15%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
   </si>
   <si>
     <t>99,4%</t>
   </si>
   <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -732,7 +738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A5CD4E-6443-4C84-AA3F-E9EBBDAF0452}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4111670-B380-40D5-94EA-1DCB99FF418B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1324,10 +1330,10 @@
         <v>57</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -1336,13 +1342,13 @@
         <v>5037</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -1351,10 +1357,10 @@
         <v>10091</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>64</v>
@@ -1378,7 +1384,7 @@
         <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="H14" s="7">
         <v>1016</v>
@@ -1387,13 +1393,13 @@
         <v>857151</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M14" s="7">
         <v>1667</v>
@@ -1402,13 +1408,13 @@
         <v>1560639</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1476,7 +1482,7 @@
         <v>1651</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
@@ -1491,13 +1497,13 @@
         <v>9601</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -1506,13 +1512,13 @@
         <v>11252</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1527,10 +1533,10 @@
         <v>924727</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>21</v>
@@ -1542,13 +1548,13 @@
         <v>1105175</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M17" s="7">
         <v>2462</v>
@@ -1557,13 +1563,13 @@
         <v>2029902</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1634,10 +1640,10 @@
         <v>29</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="H19" s="7">
         <v>32</v>
@@ -1646,13 +1652,13 @@
         <v>22122</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="M19" s="7">
         <v>41</v>
@@ -1661,13 +1667,13 @@
         <v>32856</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>29</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1685,10 +1691,10 @@
         <v>34</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H20" s="7">
         <v>5185</v>
@@ -1697,13 +1703,13 @@
         <v>3694726</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M20" s="7">
         <v>8429</v>
@@ -1712,10 +1718,10 @@
         <v>6961130</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>34</v>
@@ -1774,7 +1780,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C10_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C10_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F3086D0-DBC3-4E64-98B5-2C1DE57F1A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5E695B6-F773-44BE-99B1-FBD988A9B7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F7B34931-DC38-48C1-9477-A959C1A7FA13}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{67711F2E-AC59-4E75-AD2D-C322E640DC6E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="93">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por dolor de mandíbula / solo 2023 en 2023 (Tasa respuesta: 96,88%)</t>
   </si>
@@ -65,265 +65,253 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>1,32%</t>
+    <t>0,22%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
   </si>
   <si>
     <t>99,72%</t>
   </si>
   <si>
-    <t>99,97%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
   </si>
   <si>
     <t>99,42%</t>
   </si>
   <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
+    <t>99,86%</t>
   </si>
   <si>
     <t>99,45%</t>
   </si>
   <si>
-    <t>99,06%</t>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
   </si>
   <si>
     <t>99,7%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -738,8 +726,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4111670-B380-40D5-94EA-1DCB99FF418B}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8218B2C-EBBF-4199-818C-F46849698C15}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -859,7 +847,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>1326</v>
+        <v>1333</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -871,10 +859,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>375</v>
+        <v>692</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -886,70 +874,70 @@
         <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>1701</v>
+        <v>2024</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>114</v>
+        <v>695</v>
       </c>
       <c r="D5" s="7">
-        <v>99148</v>
+        <v>609971</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>237</v>
+        <v>1195</v>
       </c>
       <c r="I5" s="7">
-        <v>127911</v>
+        <v>650840</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="M5" s="7">
-        <v>351</v>
+        <v>1890</v>
       </c>
       <c r="N5" s="7">
-        <v>227059</v>
+        <v>1260812</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -958,153 +946,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>115</v>
+        <v>696</v>
       </c>
       <c r="D6" s="7">
-        <v>100474</v>
+        <v>611304</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>238</v>
+        <v>1197</v>
       </c>
       <c r="I6" s="7">
-        <v>128286</v>
+        <v>651532</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>353</v>
+        <v>1893</v>
       </c>
       <c r="N6" s="7">
-        <v>228760</v>
+        <v>1262836</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>2355</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>354</v>
+        <v>6182</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="7">
         <v>12</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="7">
-        <v>1</v>
-      </c>
       <c r="N7" s="7">
-        <v>354</v>
+        <v>8537</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>581</v>
+        <v>934</v>
       </c>
       <c r="D8" s="7">
-        <v>526149</v>
+        <v>1164361</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H8" s="7">
-        <v>958</v>
+        <v>1476</v>
       </c>
       <c r="I8" s="7">
-        <v>569143</v>
+        <v>936143</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="M8" s="7">
-        <v>1539</v>
+        <v>2410</v>
       </c>
       <c r="N8" s="7">
-        <v>1095292</v>
+        <v>2100503</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1113,153 +1101,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>581</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>526149</v>
+        <v>1166716</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>959</v>
+        <v>1486</v>
       </c>
       <c r="I9" s="7">
-        <v>569497</v>
+        <v>942325</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>1540</v>
+        <v>2422</v>
       </c>
       <c r="N9" s="7">
-        <v>1095646</v>
+        <v>2109040</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>2704</v>
+        <v>5023</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H10" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>6754</v>
+        <v>4593</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
       </c>
       <c r="N10" s="7">
-        <v>9459</v>
+        <v>9616</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>934</v>
+        <v>651</v>
       </c>
       <c r="D11" s="7">
-        <v>1012892</v>
+        <v>681244</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="H11" s="7">
-        <v>1476</v>
+        <v>1016</v>
       </c>
       <c r="I11" s="7">
-        <v>1035346</v>
+        <v>917460</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="M11" s="7">
-        <v>2410</v>
+        <v>1667</v>
       </c>
       <c r="N11" s="7">
-        <v>2048237</v>
+        <v>1598704</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1268,153 +1256,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>655</v>
       </c>
       <c r="D12" s="7">
-        <v>1015596</v>
+        <v>686267</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>1486</v>
+        <v>1024</v>
       </c>
       <c r="I12" s="7">
-        <v>1042100</v>
+        <v>922053</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>2422</v>
+        <v>1679</v>
       </c>
       <c r="N12" s="7">
-        <v>2057696</v>
+        <v>1608320</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>5053</v>
+        <v>1567</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="H13" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I13" s="7">
-        <v>5037</v>
+        <v>8394</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M13" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N13" s="7">
-        <v>10091</v>
+        <v>9961</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>651</v>
+        <v>964</v>
       </c>
       <c r="D14" s="7">
-        <v>703488</v>
+        <v>888368</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H14" s="7">
-        <v>1016</v>
+        <v>1498</v>
       </c>
       <c r="I14" s="7">
-        <v>857151</v>
+        <v>1054523</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M14" s="7">
-        <v>1667</v>
+        <v>2462</v>
       </c>
       <c r="N14" s="7">
-        <v>1560639</v>
+        <v>1942890</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1423,153 +1411,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>655</v>
+        <v>966</v>
       </c>
       <c r="D15" s="7">
-        <v>708541</v>
+        <v>889935</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>1024</v>
+        <v>1510</v>
       </c>
       <c r="I15" s="7">
-        <v>862188</v>
+        <v>1062917</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>1679</v>
+        <v>2476</v>
       </c>
       <c r="N15" s="7">
-        <v>1570730</v>
+        <v>1952851</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D16" s="7">
-        <v>1651</v>
+        <v>10277</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H16" s="7">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I16" s="7">
-        <v>9601</v>
+        <v>19862</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M16" s="7">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="N16" s="7">
-        <v>11252</v>
+        <v>30139</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>964</v>
+        <v>3244</v>
       </c>
       <c r="D17" s="7">
-        <v>924727</v>
+        <v>3343944</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="H17" s="7">
-        <v>1498</v>
+        <v>5185</v>
       </c>
       <c r="I17" s="7">
-        <v>1105175</v>
+        <v>3558965</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M17" s="7">
-        <v>2462</v>
+        <v>8429</v>
       </c>
       <c r="N17" s="7">
-        <v>2029902</v>
+        <v>6902909</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1578,217 +1566,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>966</v>
+        <v>3253</v>
       </c>
       <c r="D18" s="7">
-        <v>926378</v>
+        <v>3354221</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>1510</v>
+        <v>5217</v>
       </c>
       <c r="I18" s="7">
-        <v>1114776</v>
+        <v>3578827</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>2476</v>
+        <v>8470</v>
       </c>
       <c r="N18" s="7">
-        <v>2041154</v>
+        <v>6933048</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>9</v>
-      </c>
-      <c r="D19" s="7">
-        <v>10734</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" s="7">
-        <v>32</v>
-      </c>
-      <c r="I19" s="7">
-        <v>22122</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M19" s="7">
-        <v>41</v>
-      </c>
-      <c r="N19" s="7">
-        <v>32856</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3244</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3266404</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="A19" t="s">
         <v>92</v>
       </c>
-      <c r="H20" s="7">
-        <v>5185</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3694726</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8429</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6961130</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3253</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3277138</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5217</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3716848</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8470</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6993986</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>96</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
